--- a/Simple T-Test Tool.xlsx
+++ b/Simple T-Test Tool.xlsx
@@ -493,9 +493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -618,7 +616,7 @@
         <v>Y</v>
       </c>
       <c r="J2" s="7" t="str">
-        <f t="shared" ref="J2:J13" si="0">IF(U2&lt;=0.1,"Y","N")</f>
+        <f t="shared" ref="J2" si="0">IF(U2&lt;=0.1,"Y","N")</f>
         <v>Y</v>
       </c>
       <c r="K2" s="7" t="str">
